--- a/produits Baouw.xlsx
+++ b/produits Baouw.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t xml:space="preserve">Marque</t>
   </si>
@@ -130,7 +130,16 @@
     <t xml:space="preserve">Barre sel</t>
   </si>
   <si>
-    <t xml:space="preserve">Barre Extra Olive</t>
+    <t xml:space="preserve">Extra Bar Olive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrolyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrolytes</t>
   </si>
 </sst>
 </file>
@@ -386,7 +395,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -867,10 +876,46 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="6"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.3</v>
+      </c>
       <c r="K11" s="5"/>
+      <c r="L11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G12" s="6"/>

--- a/produits Baouw.xlsx
+++ b/produits Baouw.xlsx
@@ -395,7 +395,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -519,20 +519,20 @@
         <v>21</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>85</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.85</v>
+        <v>38</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">G3/E3</f>
-        <v>0.85</v>
+        <v>0.844444444444444</v>
       </c>
       <c r="J3" s="5" t="n">
         <f aca="false">0.778/100</f>
@@ -540,7 +540,7 @@
       </c>
       <c r="K3" s="5" t="n">
         <f aca="false">(29.5/585)/G3</f>
-        <v>0.0593262946204123</v>
+        <v>0.00132703553756185</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>0</v>

--- a/produits Baouw.xlsx
+++ b/produits Baouw.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t xml:space="preserve">Marque</t>
   </si>
@@ -94,9 +94,6 @@
     <t xml:space="preserve">Compote sucre</t>
   </si>
   <si>
-    <t xml:space="preserve">Purée Banane</t>
-  </si>
-  <si>
     <t xml:space="preserve">Energy Puree </t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t xml:space="preserve">Extra Bar Chocolate or Crunchy Peanut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAC</t>
   </si>
   <si>
     <t xml:space="preserve">Extra Bar Coffee</t>
@@ -390,12 +390,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R840"/>
+  <dimension ref="A1:R839"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -569,24 +569,24 @@
         <v>90</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
         <f aca="false">G4/E4</f>
-        <v>0.166666666666667</v>
+        <v>0.155555555555556</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="5" t="n">
         <f aca="false">3.25/G4</f>
-        <v>0.216666666666667</v>
+        <v>0.232142857142857</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0</v>
@@ -603,36 +603,36 @@
         <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>90</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="4" t="n">
         <f aca="false">G5/E5</f>
-        <v>0.133333333333333</v>
+        <v>0.155555555555556</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K5" s="5" t="n">
         <f aca="false">3.25/G5</f>
-        <v>0.270833333333333</v>
+        <v>0.232142857142857</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
@@ -649,42 +649,43 @@
         <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">G6/E6</f>
-        <v>0.166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3</v>
+        <f aca="false">0.01*0.4</f>
+        <v>0.004</v>
       </c>
       <c r="K6" s="5" t="n">
         <f aca="false">3.25/G6</f>
-        <v>0.216666666666667</v>
+        <v>0.13</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>0</v>
@@ -695,10 +696,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>31</v>
@@ -707,7 +708,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>25</v>
@@ -720,8 +721,7 @@
         <v>0.5</v>
       </c>
       <c r="J7" s="5" t="n">
-        <f aca="false">0.01*0.4</f>
-        <v>0.004</v>
+        <v>0.25</v>
       </c>
       <c r="K7" s="5" t="n">
         <f aca="false">3.25/G7</f>
@@ -742,36 +742,36 @@
         <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>50</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I8" s="4" t="n">
         <f aca="false">G8/E8</f>
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.25</v>
+        <v>0.014</v>
       </c>
       <c r="K8" s="5" t="n">
         <f aca="false">3.25/G8</f>
-        <v>0.13</v>
+        <v>0.147727272727273</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0</v>
@@ -788,36 +788,36 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>50</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>45</v>
+        <v>48.4</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>22</v>
+        <v>24.2</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4" t="n">
         <f aca="false">G9/E9</f>
-        <v>0.44</v>
+        <v>0.484</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.014</v>
+        <v>0.225</v>
       </c>
       <c r="K9" s="5" t="n">
         <f aca="false">3.25/G9</f>
-        <v>0.147727272727273</v>
+        <v>0.134297520661157</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>0</v>
@@ -834,88 +834,48 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>24.2</v>
+        <v>28</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.4</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="4" t="n">
-        <f aca="false">G10/E10</f>
-        <v>0.484</v>
+        <v>0.28</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <f aca="false">3.25/G10</f>
-        <v>0.134297520661157</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="5"/>
       <c r="L10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="G11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G12" s="6"/>
@@ -960,7 +920,7 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G19" s="6"/>
+      <c r="G19" s="0"/>
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1001,11 +961,11 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="0"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="0"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G36" s="0"/>
@@ -1061,13 +1021,14 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G45" s="0"/>
       <c r="I45" s="4"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-    </row>
-    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="R45" s="7"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="0"/>
       <c r="I46" s="4"/>
       <c r="J46" s="5"/>
@@ -1212,7 +1173,6 @@
       <c r="I66" s="4"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="R66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G67" s="0"/>
@@ -1315,13 +1275,13 @@
       <c r="I83" s="4"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
+      <c r="R83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G84" s="0"/>
       <c r="I84" s="4"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="R84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G85" s="0"/>
@@ -1552,15 +1512,15 @@
       <c r="K122" s="5"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="9"/>
       <c r="G123" s="0"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="5"/>
       <c r="K123" s="5"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="9"/>
       <c r="G124" s="0"/>
       <c r="I124" s="4"/>
+      <c r="J124" s="5"/>
       <c r="K124" s="5"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1684,10 +1644,12 @@
       <c r="K144" s="5"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="9"/>
       <c r="G145" s="0"/>
       <c r="I145" s="4"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
+      <c r="R145" s="10"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="9"/>
@@ -1753,7 +1715,7 @@
       <c r="K153" s="5"/>
       <c r="R153" s="10"/>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="9"/>
       <c r="G154" s="0"/>
       <c r="I154" s="4"/>
@@ -1761,7 +1723,7 @@
       <c r="K154" s="5"/>
       <c r="R154" s="10"/>
     </row>
-    <row r="155" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="9"/>
       <c r="G155" s="0"/>
       <c r="I155" s="4"/>
@@ -1847,7 +1809,6 @@
       <c r="I165" s="4"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
-      <c r="R165" s="10"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="9"/>
@@ -1937,7 +1898,6 @@
       <c r="A178" s="9"/>
       <c r="G178" s="0"/>
       <c r="I178" s="4"/>
-      <c r="J178" s="5"/>
       <c r="K178" s="5"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1950,7 +1910,8 @@
       <c r="A180" s="9"/>
       <c r="G180" s="0"/>
       <c r="I180" s="4"/>
-      <c r="K180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="11"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="9"/>
@@ -1971,7 +1932,7 @@
       <c r="G183" s="0"/>
       <c r="I183" s="4"/>
       <c r="J183" s="5"/>
-      <c r="K183" s="11"/>
+      <c r="K183" s="5"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="9"/>
@@ -2045,6 +2006,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="9"/>
+      <c r="D194" s="9"/>
       <c r="G194" s="0"/>
       <c r="I194" s="4"/>
       <c r="J194" s="5"/>
@@ -2052,7 +2014,6 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="9"/>
-      <c r="D195" s="9"/>
       <c r="G195" s="0"/>
       <c r="I195" s="4"/>
       <c r="J195" s="5"/>
@@ -2102,6 +2063,7 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="9"/>
+      <c r="D202" s="9"/>
       <c r="G202" s="0"/>
       <c r="I202" s="4"/>
       <c r="J202" s="5"/>
@@ -2109,11 +2071,11 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="9"/>
-      <c r="D203" s="9"/>
       <c r="G203" s="0"/>
       <c r="I203" s="4"/>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
+      <c r="R203" s="9"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="9"/>
@@ -2205,6 +2167,7 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="9"/>
+      <c r="D215" s="9"/>
       <c r="G215" s="0"/>
       <c r="I215" s="4"/>
       <c r="J215" s="5"/>
@@ -2227,7 +2190,6 @@
       <c r="I217" s="4"/>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
-      <c r="R217" s="9"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="9"/>
@@ -2263,7 +2225,6 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="9"/>
-      <c r="D222" s="9"/>
       <c r="G222" s="0"/>
       <c r="I222" s="4"/>
       <c r="J222" s="5"/>
@@ -2271,6 +2232,7 @@
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="9"/>
+      <c r="D223" s="9"/>
       <c r="G223" s="0"/>
       <c r="I223" s="4"/>
       <c r="J223" s="5"/>
@@ -2278,11 +2240,11 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="9"/>
-      <c r="D224" s="9"/>
       <c r="G224" s="0"/>
       <c r="I224" s="4"/>
       <c r="J224" s="5"/>
       <c r="K224" s="5"/>
+      <c r="R224" s="9"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="9"/>
@@ -2290,10 +2252,10 @@
       <c r="I225" s="4"/>
       <c r="J225" s="5"/>
       <c r="K225" s="5"/>
-      <c r="R225" s="9"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="9"/>
+      <c r="D226" s="9"/>
       <c r="G226" s="0"/>
       <c r="I226" s="4"/>
       <c r="J226" s="5"/>
@@ -2309,7 +2271,6 @@
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="9"/>
-      <c r="D228" s="9"/>
       <c r="G228" s="0"/>
       <c r="I228" s="4"/>
       <c r="J228" s="5"/>
@@ -2503,6 +2464,7 @@
       <c r="I255" s="4"/>
       <c r="J255" s="5"/>
       <c r="K255" s="5"/>
+      <c r="R255" s="9"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="9"/>
@@ -2538,6 +2500,7 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="9"/>
+      <c r="D260" s="9"/>
       <c r="G260" s="0"/>
       <c r="I260" s="4"/>
       <c r="J260" s="5"/>
@@ -2546,15 +2509,15 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="9"/>
-      <c r="D261" s="9"/>
       <c r="G261" s="0"/>
       <c r="I261" s="4"/>
       <c r="J261" s="5"/>
       <c r="K261" s="5"/>
-      <c r="R261" s="9"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="9"/>
+      <c r="D262" s="9"/>
+      <c r="F262" s="9"/>
       <c r="G262" s="0"/>
       <c r="I262" s="4"/>
       <c r="J262" s="5"/>
@@ -2562,8 +2525,6 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="9"/>
-      <c r="D263" s="9"/>
-      <c r="F263" s="9"/>
       <c r="G263" s="0"/>
       <c r="I263" s="4"/>
       <c r="J263" s="5"/>
@@ -2578,6 +2539,7 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="9"/>
+      <c r="D265" s="9"/>
       <c r="G265" s="0"/>
       <c r="I265" s="4"/>
       <c r="J265" s="5"/>
@@ -2585,7 +2547,6 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="9"/>
-      <c r="D266" s="9"/>
       <c r="G266" s="0"/>
       <c r="I266" s="4"/>
       <c r="J266" s="5"/>
@@ -2607,6 +2568,7 @@
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="9"/>
+      <c r="D269" s="9"/>
       <c r="G269" s="0"/>
       <c r="I269" s="4"/>
       <c r="J269" s="5"/>
@@ -2622,7 +2584,6 @@
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="9"/>
-      <c r="D271" s="9"/>
       <c r="G271" s="0"/>
       <c r="I271" s="4"/>
       <c r="J271" s="5"/>
@@ -2924,6 +2885,7 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="9"/>
+      <c r="D314" s="9"/>
       <c r="G314" s="0"/>
       <c r="I314" s="4"/>
       <c r="J314" s="5"/>
@@ -2931,7 +2893,6 @@
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="9"/>
-      <c r="D315" s="9"/>
       <c r="G315" s="0"/>
       <c r="I315" s="4"/>
       <c r="J315" s="5"/>
@@ -2966,7 +2927,6 @@
       <c r="K319" s="5"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="9"/>
       <c r="G320" s="0"/>
       <c r="I320" s="4"/>
       <c r="J320" s="5"/>
@@ -3003,6 +2963,7 @@
       <c r="K325" s="5"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="9"/>
       <c r="G326" s="0"/>
       <c r="I326" s="4"/>
       <c r="J326" s="5"/>
@@ -3105,6 +3066,7 @@
       <c r="I340" s="4"/>
       <c r="J340" s="5"/>
       <c r="K340" s="5"/>
+      <c r="R340" s="10"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="9"/>
@@ -3112,7 +3074,6 @@
       <c r="I341" s="4"/>
       <c r="J341" s="5"/>
       <c r="K341" s="5"/>
-      <c r="R341" s="10"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="9"/>
@@ -3164,7 +3125,6 @@
       <c r="K348" s="5"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="9"/>
       <c r="G349" s="0"/>
       <c r="I349" s="4"/>
       <c r="J349" s="5"/>
@@ -3183,6 +3143,7 @@
       <c r="K351" s="5"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="9"/>
       <c r="G352" s="0"/>
       <c r="I352" s="4"/>
       <c r="J352" s="5"/>
@@ -3364,7 +3325,6 @@
       <c r="K377" s="5"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="9"/>
       <c r="G378" s="0"/>
       <c r="I378" s="4"/>
       <c r="J378" s="5"/>
@@ -3611,6 +3571,7 @@
       <c r="K418" s="5"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="9"/>
       <c r="G419" s="0"/>
       <c r="I419" s="4"/>
       <c r="J419" s="5"/>
@@ -3912,6 +3873,7 @@
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="9"/>
+      <c r="D462" s="9"/>
       <c r="G462" s="0"/>
       <c r="I462" s="4"/>
       <c r="J462" s="5"/>
@@ -3919,7 +3881,6 @@
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="9"/>
-      <c r="D463" s="9"/>
       <c r="G463" s="0"/>
       <c r="I463" s="4"/>
       <c r="J463" s="5"/>
@@ -3989,7 +3950,6 @@
       <c r="K472" s="5"/>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="9"/>
       <c r="G473" s="0"/>
       <c r="I473" s="4"/>
       <c r="J473" s="5"/>
@@ -4002,6 +3962,7 @@
       <c r="K474" s="5"/>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D475" s="9"/>
       <c r="G475" s="0"/>
       <c r="I475" s="4"/>
       <c r="J475" s="5"/>
@@ -4022,7 +3983,6 @@
       <c r="K477" s="5"/>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D478" s="9"/>
       <c r="G478" s="0"/>
       <c r="I478" s="4"/>
       <c r="J478" s="5"/>
@@ -4117,6 +4077,7 @@
       <c r="I493" s="4"/>
       <c r="J493" s="5"/>
       <c r="K493" s="5"/>
+      <c r="R493" s="9"/>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G494" s="0"/>
@@ -4235,16 +4196,15 @@
       <c r="I510" s="4"/>
       <c r="J510" s="5"/>
       <c r="K510" s="5"/>
-      <c r="R510" s="9"/>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D511" s="9"/>
       <c r="G511" s="0"/>
       <c r="I511" s="4"/>
       <c r="J511" s="5"/>
       <c r="K511" s="5"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D512" s="9"/>
       <c r="G512" s="0"/>
       <c r="I512" s="4"/>
       <c r="J512" s="5"/>
@@ -4293,13 +4253,13 @@
       <c r="K519" s="5"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D520" s="9"/>
       <c r="G520" s="0"/>
       <c r="I520" s="4"/>
       <c r="J520" s="5"/>
       <c r="K520" s="5"/>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D521" s="9"/>
       <c r="G521" s="0"/>
       <c r="I521" s="4"/>
       <c r="J521" s="5"/>
@@ -4408,13 +4368,13 @@
       <c r="K538" s="5"/>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D539" s="9"/>
       <c r="G539" s="0"/>
       <c r="I539" s="4"/>
       <c r="J539" s="5"/>
       <c r="K539" s="5"/>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D540" s="9"/>
       <c r="G540" s="0"/>
       <c r="I540" s="4"/>
       <c r="J540" s="5"/>
@@ -4607,6 +4567,7 @@
       <c r="K571" s="5"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D572" s="9"/>
       <c r="G572" s="0"/>
       <c r="I572" s="4"/>
       <c r="J572" s="5"/>
@@ -4620,7 +4581,6 @@
       <c r="K573" s="5"/>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D574" s="9"/>
       <c r="G574" s="0"/>
       <c r="I574" s="4"/>
       <c r="J574" s="5"/>
@@ -4855,13 +4815,13 @@
       <c r="K612" s="5"/>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D613" s="12"/>
       <c r="G613" s="0"/>
       <c r="I613" s="4"/>
       <c r="J613" s="5"/>
       <c r="K613" s="5"/>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D614" s="12"/>
       <c r="G614" s="0"/>
       <c r="I614" s="4"/>
       <c r="J614" s="5"/>
@@ -4876,8 +4836,6 @@
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G616" s="0"/>
       <c r="I616" s="4"/>
-      <c r="J616" s="5"/>
-      <c r="K616" s="5"/>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G617" s="0"/>
@@ -5008,11 +4966,11 @@
       <c r="I648" s="4"/>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F649" s="13"/>
       <c r="G649" s="0"/>
       <c r="I649" s="4"/>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F650" s="13"/>
       <c r="G650" s="0"/>
       <c r="I650" s="4"/>
     </row>
@@ -5047,6 +5005,7 @@
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G658" s="0"/>
       <c r="I658" s="4"/>
+      <c r="R658" s="10"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G659" s="0"/>
@@ -5116,7 +5075,6 @@
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G672" s="0"/>
       <c r="I672" s="4"/>
-      <c r="R672" s="10"/>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G673" s="0"/>
@@ -5135,6 +5093,7 @@
       <c r="I676" s="4"/>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D677" s="9"/>
       <c r="G677" s="0"/>
       <c r="I677" s="4"/>
     </row>
@@ -5149,7 +5108,6 @@
       <c r="I679" s="4"/>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D680" s="9"/>
       <c r="G680" s="0"/>
       <c r="I680" s="4"/>
     </row>
@@ -5299,7 +5257,6 @@
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G717" s="0"/>
-      <c r="I717" s="4"/>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G718" s="0"/>
@@ -5666,9 +5623,6 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G839" s="0"/>
-    </row>
-    <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G840" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/produits Baouw.xlsx
+++ b/produits Baouw.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t xml:space="preserve">Marque</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">Extra Bar Chocolate or Crunchy Peanut </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAC</t>
   </si>
   <si>
     <t xml:space="preserve">Extra Bar Coffee</t>
@@ -395,7 +392,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -535,8 +532,7 @@
         <v>0.844444444444444</v>
       </c>
       <c r="J3" s="5" t="n">
-        <f aca="false">0.778/100</f>
-        <v>0.00778</v>
+        <v>0.3</v>
       </c>
       <c r="K3" s="5" t="n">
         <f aca="false">(29.5/585)/G3</f>
@@ -742,13 +738,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>50</v>
@@ -788,13 +784,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>50</v>
@@ -834,13 +830,13 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>5</v>

--- a/produits Baouw.xlsx
+++ b/produits Baouw.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t xml:space="preserve">Marque</t>
   </si>
@@ -387,12 +387,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R839"/>
+  <dimension ref="A1:R843"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,36 +507,36 @@
         <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">G3/E3</f>
-        <v>0.844444444444444</v>
+        <v>0.352941176470588</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K3" s="5" t="n">
-        <f aca="false">(29.5/585)/G3</f>
-        <v>0.00132703553756185</v>
+        <f aca="false">3.5/G3</f>
+        <v>0.116666666666667</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>0</v>
@@ -553,36 +553,36 @@
         <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="4" t="n">
         <f aca="false">G4/E4</f>
-        <v>0.155555555555556</v>
+        <v>0.352941176470588</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="5" t="n">
-        <f aca="false">3.25/G4</f>
-        <v>0.232142857142857</v>
+        <f aca="false">3.5/G4</f>
+        <v>0.116666666666667</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0</v>
@@ -599,36 +599,36 @@
         <v>15</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="4" t="n">
         <f aca="false">G5/E5</f>
-        <v>0.155555555555556</v>
+        <v>0.844444444444444</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0.3</v>
       </c>
       <c r="K5" s="5" t="n">
-        <f aca="false">3.25/G5</f>
-        <v>0.232142857142857</v>
+        <f aca="false">(29.5/585)/G5</f>
+        <v>0.00132703553756185</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
@@ -645,43 +645,42 @@
         <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">G6/E6</f>
-        <v>0.5</v>
+        <v>0.155555555555556</v>
       </c>
       <c r="J6" s="5" t="n">
-        <f aca="false">0.01*0.4</f>
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="K6" s="5" t="n">
         <f aca="false">3.25/G6</f>
-        <v>0.13</v>
+        <v>0.232142857142857</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="0" t="n">
         <v>0</v>
@@ -692,42 +691,42 @@
         <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="4" t="n">
         <f aca="false">G7/E7</f>
-        <v>0.5</v>
+        <v>0.155555555555556</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K7" s="5" t="n">
         <f aca="false">3.25/G7</f>
-        <v>0.13</v>
+        <v>0.232142857142857</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="0" t="n">
         <v>0</v>
@@ -738,42 +737,42 @@
         <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4" t="n">
         <f aca="false">G8/E8</f>
-        <v>0.44</v>
+        <v>0.155555555555556</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
         <f aca="false">3.25/G8</f>
-        <v>0.147727272727273</v>
+        <v>0.232142857142857</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="0" t="n">
         <v>0</v>
@@ -784,42 +783,42 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>48.4</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>24.2</v>
+        <v>14</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="4" t="n">
         <f aca="false">G9/E9</f>
-        <v>0.484</v>
+        <v>0.155555555555556</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.225</v>
+        <v>0.3</v>
       </c>
       <c r="K9" s="5" t="n">
         <f aca="false">3.25/G9</f>
-        <v>0.134297520661157</v>
+        <v>0.232142857142857</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="0" t="n">
         <v>0</v>
@@ -830,66 +829,227 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>1.4</v>
+        <v>50</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.28</v>
+        <f aca="false">G10/E10</f>
+        <v>0.5</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K10" s="5"/>
+        <f aca="false">0.01*0.4</f>
+        <v>0.004</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <f aca="false">3.25/G10</f>
+        <v>0.13</v>
+      </c>
       <c r="L10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="6"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <f aca="false">G11/E11</f>
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <f aca="false">3.25/G11</f>
+        <v>0.13</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G12" s="6"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="A12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <f aca="false">G12/E12</f>
+        <v>0.44</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <f aca="false">3.25/G12</f>
+        <v>0.147727272727273</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G13" s="6"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="A13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <f aca="false">G13/E13</f>
+        <v>0.484</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <f aca="false">3.25/G13</f>
+        <v>0.134297520661157</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G14" s="6"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
+      <c r="A14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.3</v>
+      </c>
       <c r="K14" s="5"/>
+      <c r="L14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G15" s="6"/>
@@ -916,25 +1076,25 @@
       <c r="K18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G19" s="0"/>
+      <c r="G19" s="6"/>
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G20" s="0"/>
+      <c r="G20" s="6"/>
       <c r="I20" s="4"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G21" s="0"/>
+      <c r="G21" s="6"/>
       <c r="I21" s="4"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G22" s="0"/>
+      <c r="G22" s="6"/>
       <c r="I22" s="4"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -957,29 +1117,29 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="0"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="0"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G37" s="0"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G38" s="0"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="0"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="0"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="0"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="0"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G39" s="0"/>
@@ -1017,35 +1177,31 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G45" s="0"/>
       <c r="I45" s="4"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="R45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G46" s="0"/>
       <c r="I46" s="4"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="R46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G47" s="0"/>
       <c r="I47" s="4"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="R47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G48" s="0"/>
       <c r="I48" s="4"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="R48" s="7"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G49" s="0"/>
       <c r="I49" s="4"/>
       <c r="J49" s="5"/>
@@ -1169,24 +1325,28 @@
       <c r="I66" s="4"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
+      <c r="R66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G67" s="0"/>
       <c r="I67" s="4"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
+      <c r="R67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G68" s="0"/>
       <c r="I68" s="4"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
+      <c r="R68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G69" s="0"/>
       <c r="I69" s="4"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
+      <c r="R69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G70" s="0"/>
@@ -1271,7 +1431,6 @@
       <c r="I83" s="4"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="R83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G84" s="0"/>
@@ -1296,6 +1455,7 @@
       <c r="I87" s="4"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
+      <c r="R87" s="8"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G88" s="0"/>
@@ -1508,9 +1668,9 @@
       <c r="K122" s="5"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="9"/>
       <c r="G123" s="0"/>
       <c r="I123" s="4"/>
+      <c r="J123" s="5"/>
       <c r="K123" s="5"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1532,9 +1692,9 @@
       <c r="K126" s="5"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="9"/>
       <c r="G127" s="0"/>
       <c r="I127" s="4"/>
-      <c r="J127" s="5"/>
       <c r="K127" s="5"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1640,36 +1800,28 @@
       <c r="K144" s="5"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="9"/>
       <c r="G145" s="0"/>
       <c r="I145" s="4"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
-      <c r="R145" s="10"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="9"/>
       <c r="G146" s="0"/>
       <c r="I146" s="4"/>
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
-      <c r="R146" s="10"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="9"/>
       <c r="G147" s="0"/>
       <c r="I147" s="4"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
-      <c r="R147" s="10"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="9"/>
       <c r="G148" s="0"/>
       <c r="I148" s="4"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
-      <c r="R148" s="10"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="9"/>
@@ -1711,7 +1863,7 @@
       <c r="K153" s="5"/>
       <c r="R153" s="10"/>
     </row>
-    <row r="154" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="9"/>
       <c r="G154" s="0"/>
       <c r="I154" s="4"/>
@@ -1743,7 +1895,7 @@
       <c r="K157" s="5"/>
       <c r="R157" s="10"/>
     </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="9"/>
       <c r="G158" s="0"/>
       <c r="I158" s="4"/>
@@ -1805,6 +1957,7 @@
       <c r="I165" s="4"/>
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
+      <c r="R165" s="10"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="9"/>
@@ -1812,6 +1965,7 @@
       <c r="I166" s="4"/>
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
+      <c r="R166" s="10"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="9"/>
@@ -1819,6 +1973,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
+      <c r="R167" s="10"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="9"/>
@@ -1826,6 +1981,7 @@
       <c r="I168" s="4"/>
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
+      <c r="R168" s="10"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="9"/>
@@ -1894,12 +2050,14 @@
       <c r="A178" s="9"/>
       <c r="G178" s="0"/>
       <c r="I178" s="4"/>
+      <c r="J178" s="5"/>
       <c r="K178" s="5"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="9"/>
       <c r="G179" s="0"/>
       <c r="I179" s="4"/>
+      <c r="J179" s="5"/>
       <c r="K179" s="5"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,27 +2065,25 @@
       <c r="G180" s="0"/>
       <c r="I180" s="4"/>
       <c r="J180" s="5"/>
-      <c r="K180" s="11"/>
+      <c r="K180" s="5"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="9"/>
       <c r="G181" s="0"/>
       <c r="I181" s="4"/>
       <c r="J181" s="5"/>
-      <c r="K181" s="11"/>
+      <c r="K181" s="5"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="9"/>
       <c r="G182" s="0"/>
       <c r="I182" s="4"/>
-      <c r="J182" s="5"/>
-      <c r="K182" s="11"/>
+      <c r="K182" s="5"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="9"/>
       <c r="G183" s="0"/>
       <c r="I183" s="4"/>
-      <c r="J183" s="5"/>
       <c r="K183" s="5"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,21 +2091,21 @@
       <c r="G184" s="0"/>
       <c r="I184" s="4"/>
       <c r="J184" s="5"/>
-      <c r="K184" s="5"/>
+      <c r="K184" s="11"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="9"/>
       <c r="G185" s="0"/>
       <c r="I185" s="4"/>
       <c r="J185" s="5"/>
-      <c r="K185" s="5"/>
+      <c r="K185" s="11"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="9"/>
       <c r="G186" s="0"/>
       <c r="I186" s="4"/>
       <c r="J186" s="5"/>
-      <c r="K186" s="5"/>
+      <c r="K186" s="11"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="9"/>
@@ -2002,7 +2158,6 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="9"/>
-      <c r="D194" s="9"/>
       <c r="G194" s="0"/>
       <c r="I194" s="4"/>
       <c r="J194" s="5"/>
@@ -2031,6 +2186,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="9"/>
+      <c r="D198" s="9"/>
       <c r="G198" s="0"/>
       <c r="I198" s="4"/>
       <c r="J198" s="5"/>
@@ -2059,7 +2215,6 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="9"/>
-      <c r="D202" s="9"/>
       <c r="G202" s="0"/>
       <c r="I202" s="4"/>
       <c r="J202" s="5"/>
@@ -2071,7 +2226,6 @@
       <c r="I203" s="4"/>
       <c r="J203" s="5"/>
       <c r="K203" s="5"/>
-      <c r="R203" s="9"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="9"/>
@@ -2079,7 +2233,6 @@
       <c r="I204" s="4"/>
       <c r="J204" s="5"/>
       <c r="K204" s="5"/>
-      <c r="R204" s="9"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="9"/>
@@ -2087,15 +2240,14 @@
       <c r="I205" s="4"/>
       <c r="J205" s="5"/>
       <c r="K205" s="5"/>
-      <c r="R205" s="9"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="9"/>
+      <c r="D206" s="9"/>
       <c r="G206" s="0"/>
       <c r="I206" s="4"/>
       <c r="J206" s="5"/>
       <c r="K206" s="5"/>
-      <c r="R206" s="9"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="9"/>
@@ -2163,7 +2315,6 @@
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="9"/>
-      <c r="D215" s="9"/>
       <c r="G215" s="0"/>
       <c r="I215" s="4"/>
       <c r="J215" s="5"/>
@@ -2172,7 +2323,6 @@
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="9"/>
-      <c r="D216" s="9"/>
       <c r="G216" s="0"/>
       <c r="I216" s="4"/>
       <c r="J216" s="5"/>
@@ -2181,19 +2331,19 @@
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="9"/>
-      <c r="D217" s="9"/>
       <c r="G217" s="0"/>
       <c r="I217" s="4"/>
       <c r="J217" s="5"/>
       <c r="K217" s="5"/>
+      <c r="R217" s="9"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="9"/>
-      <c r="D218" s="9"/>
       <c r="G218" s="0"/>
       <c r="I218" s="4"/>
       <c r="J218" s="5"/>
       <c r="K218" s="5"/>
+      <c r="R218" s="9"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="9"/>
@@ -2202,6 +2352,7 @@
       <c r="I219" s="4"/>
       <c r="J219" s="5"/>
       <c r="K219" s="5"/>
+      <c r="R219" s="9"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="9"/>
@@ -2210,6 +2361,7 @@
       <c r="I220" s="4"/>
       <c r="J220" s="5"/>
       <c r="K220" s="5"/>
+      <c r="R220" s="9"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="9"/>
@@ -2221,6 +2373,7 @@
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="9"/>
+      <c r="D222" s="9"/>
       <c r="G222" s="0"/>
       <c r="I222" s="4"/>
       <c r="J222" s="5"/>
@@ -2236,14 +2389,15 @@
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="9"/>
+      <c r="D224" s="9"/>
       <c r="G224" s="0"/>
       <c r="I224" s="4"/>
       <c r="J224" s="5"/>
       <c r="K224" s="5"/>
-      <c r="R224" s="9"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="9"/>
+      <c r="D225" s="9"/>
       <c r="G225" s="0"/>
       <c r="I225" s="4"/>
       <c r="J225" s="5"/>
@@ -2251,7 +2405,6 @@
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="9"/>
-      <c r="D226" s="9"/>
       <c r="G226" s="0"/>
       <c r="I226" s="4"/>
       <c r="J226" s="5"/>
@@ -2271,6 +2424,7 @@
       <c r="I228" s="4"/>
       <c r="J228" s="5"/>
       <c r="K228" s="5"/>
+      <c r="R228" s="9"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="9"/>
@@ -2281,6 +2435,7 @@
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="9"/>
+      <c r="D230" s="9"/>
       <c r="G230" s="0"/>
       <c r="I230" s="4"/>
       <c r="J230" s="5"/>
@@ -2288,6 +2443,7 @@
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="9"/>
+      <c r="D231" s="9"/>
       <c r="G231" s="0"/>
       <c r="I231" s="4"/>
       <c r="J231" s="5"/>
@@ -2460,7 +2616,6 @@
       <c r="I255" s="4"/>
       <c r="J255" s="5"/>
       <c r="K255" s="5"/>
-      <c r="R255" s="9"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="9"/>
@@ -2468,7 +2623,6 @@
       <c r="I256" s="4"/>
       <c r="J256" s="5"/>
       <c r="K256" s="5"/>
-      <c r="R256" s="9"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="9"/>
@@ -2476,7 +2630,6 @@
       <c r="I257" s="4"/>
       <c r="J257" s="5"/>
       <c r="K257" s="5"/>
-      <c r="R257" s="9"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="9"/>
@@ -2484,7 +2637,6 @@
       <c r="I258" s="4"/>
       <c r="J258" s="5"/>
       <c r="K258" s="5"/>
-      <c r="R258" s="9"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="9"/>
@@ -2496,7 +2648,6 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="9"/>
-      <c r="D260" s="9"/>
       <c r="G260" s="0"/>
       <c r="I260" s="4"/>
       <c r="J260" s="5"/>
@@ -2509,15 +2660,15 @@
       <c r="I261" s="4"/>
       <c r="J261" s="5"/>
       <c r="K261" s="5"/>
+      <c r="R261" s="9"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="9"/>
-      <c r="D262" s="9"/>
-      <c r="F262" s="9"/>
       <c r="G262" s="0"/>
       <c r="I262" s="4"/>
       <c r="J262" s="5"/>
       <c r="K262" s="5"/>
+      <c r="R262" s="9"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="9"/>
@@ -2525,17 +2676,19 @@
       <c r="I263" s="4"/>
       <c r="J263" s="5"/>
       <c r="K263" s="5"/>
+      <c r="R263" s="9"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="9"/>
+      <c r="D264" s="9"/>
       <c r="G264" s="0"/>
       <c r="I264" s="4"/>
       <c r="J264" s="5"/>
       <c r="K264" s="5"/>
+      <c r="R264" s="9"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="9"/>
-      <c r="D265" s="9"/>
       <c r="G265" s="0"/>
       <c r="I265" s="4"/>
       <c r="J265" s="5"/>
@@ -2543,6 +2696,8 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="9"/>
+      <c r="D266" s="9"/>
+      <c r="F266" s="9"/>
       <c r="G266" s="0"/>
       <c r="I266" s="4"/>
       <c r="J266" s="5"/>
@@ -2572,7 +2727,6 @@
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="9"/>
-      <c r="D270" s="9"/>
       <c r="G270" s="0"/>
       <c r="I270" s="4"/>
       <c r="J270" s="5"/>
@@ -2594,6 +2748,7 @@
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="9"/>
+      <c r="D273" s="9"/>
       <c r="G273" s="0"/>
       <c r="I273" s="4"/>
       <c r="J273" s="5"/>
@@ -2601,6 +2756,7 @@
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="9"/>
+      <c r="D274" s="9"/>
       <c r="G274" s="0"/>
       <c r="I274" s="4"/>
       <c r="J274" s="5"/>
@@ -2881,7 +3037,6 @@
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="9"/>
-      <c r="D314" s="9"/>
       <c r="G314" s="0"/>
       <c r="I314" s="4"/>
       <c r="J314" s="5"/>
@@ -2910,6 +3065,7 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="9"/>
+      <c r="D318" s="9"/>
       <c r="G318" s="0"/>
       <c r="I318" s="4"/>
       <c r="J318" s="5"/>
@@ -2923,24 +3079,28 @@
       <c r="K319" s="5"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="9"/>
       <c r="G320" s="0"/>
       <c r="I320" s="4"/>
       <c r="J320" s="5"/>
       <c r="K320" s="5"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="9"/>
       <c r="G321" s="0"/>
       <c r="I321" s="4"/>
       <c r="J321" s="5"/>
       <c r="K321" s="5"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="9"/>
       <c r="G322" s="0"/>
       <c r="I322" s="4"/>
       <c r="J322" s="5"/>
       <c r="K322" s="5"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="9"/>
       <c r="G323" s="0"/>
       <c r="I323" s="4"/>
       <c r="J323" s="5"/>
@@ -2959,28 +3119,24 @@
       <c r="K325" s="5"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="9"/>
       <c r="G326" s="0"/>
       <c r="I326" s="4"/>
       <c r="J326" s="5"/>
       <c r="K326" s="5"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="9"/>
       <c r="G327" s="0"/>
       <c r="I327" s="4"/>
       <c r="J327" s="5"/>
       <c r="K327" s="5"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="9"/>
       <c r="G328" s="0"/>
       <c r="I328" s="4"/>
       <c r="J328" s="5"/>
       <c r="K328" s="5"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="9"/>
       <c r="G329" s="0"/>
       <c r="I329" s="4"/>
       <c r="J329" s="5"/>
@@ -3062,7 +3218,6 @@
       <c r="I340" s="4"/>
       <c r="J340" s="5"/>
       <c r="K340" s="5"/>
-      <c r="R340" s="10"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="9"/>
@@ -3091,6 +3246,7 @@
       <c r="I344" s="4"/>
       <c r="J344" s="5"/>
       <c r="K344" s="5"/>
+      <c r="R344" s="10"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="9"/>
@@ -3121,18 +3277,21 @@
       <c r="K348" s="5"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="9"/>
       <c r="G349" s="0"/>
       <c r="I349" s="4"/>
       <c r="J349" s="5"/>
       <c r="K349" s="5"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="9"/>
       <c r="G350" s="0"/>
       <c r="I350" s="4"/>
       <c r="J350" s="5"/>
       <c r="K350" s="5"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="9"/>
       <c r="G351" s="0"/>
       <c r="I351" s="4"/>
       <c r="J351" s="5"/>
@@ -3146,21 +3305,18 @@
       <c r="K352" s="5"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="9"/>
       <c r="G353" s="0"/>
       <c r="I353" s="4"/>
       <c r="J353" s="5"/>
       <c r="K353" s="5"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="9"/>
       <c r="G354" s="0"/>
       <c r="I354" s="4"/>
       <c r="J354" s="5"/>
       <c r="K354" s="5"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="9"/>
       <c r="G355" s="0"/>
       <c r="I355" s="4"/>
       <c r="J355" s="5"/>
@@ -3321,24 +3477,28 @@
       <c r="K377" s="5"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="9"/>
       <c r="G378" s="0"/>
       <c r="I378" s="4"/>
       <c r="J378" s="5"/>
       <c r="K378" s="5"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="9"/>
       <c r="G379" s="0"/>
       <c r="I379" s="4"/>
       <c r="J379" s="5"/>
       <c r="K379" s="5"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="9"/>
       <c r="G380" s="0"/>
       <c r="I380" s="4"/>
       <c r="J380" s="5"/>
       <c r="K380" s="5"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="9"/>
       <c r="G381" s="0"/>
       <c r="I381" s="4"/>
       <c r="J381" s="5"/>
@@ -3567,28 +3727,24 @@
       <c r="K418" s="5"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="9"/>
       <c r="G419" s="0"/>
       <c r="I419" s="4"/>
       <c r="J419" s="5"/>
       <c r="K419" s="5"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="9"/>
       <c r="G420" s="0"/>
       <c r="I420" s="4"/>
       <c r="J420" s="5"/>
       <c r="K420" s="5"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="9"/>
       <c r="G421" s="0"/>
       <c r="I421" s="4"/>
       <c r="J421" s="5"/>
       <c r="K421" s="5"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="9"/>
       <c r="G422" s="0"/>
       <c r="I422" s="4"/>
       <c r="J422" s="5"/>
@@ -3869,7 +4025,6 @@
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="9"/>
-      <c r="D462" s="9"/>
       <c r="G462" s="0"/>
       <c r="I462" s="4"/>
       <c r="J462" s="5"/>
@@ -3898,6 +4053,7 @@
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="9"/>
+      <c r="D466" s="9"/>
       <c r="G466" s="0"/>
       <c r="I466" s="4"/>
       <c r="J466" s="5"/>
@@ -3946,33 +4102,34 @@
       <c r="K472" s="5"/>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="9"/>
       <c r="G473" s="0"/>
       <c r="I473" s="4"/>
       <c r="J473" s="5"/>
       <c r="K473" s="5"/>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="9"/>
       <c r="G474" s="0"/>
       <c r="I474" s="4"/>
       <c r="J474" s="5"/>
       <c r="K474" s="5"/>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D475" s="9"/>
+      <c r="A475" s="9"/>
       <c r="G475" s="0"/>
       <c r="I475" s="4"/>
       <c r="J475" s="5"/>
       <c r="K475" s="5"/>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D476" s="9"/>
+      <c r="A476" s="9"/>
       <c r="G476" s="0"/>
       <c r="I476" s="4"/>
       <c r="J476" s="5"/>
       <c r="K476" s="5"/>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D477" s="9"/>
       <c r="G477" s="0"/>
       <c r="I477" s="4"/>
       <c r="J477" s="5"/>
@@ -3985,18 +4142,21 @@
       <c r="K478" s="5"/>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D479" s="9"/>
       <c r="G479" s="0"/>
       <c r="I479" s="4"/>
       <c r="J479" s="5"/>
       <c r="K479" s="5"/>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D480" s="9"/>
       <c r="G480" s="0"/>
       <c r="I480" s="4"/>
       <c r="J480" s="5"/>
       <c r="K480" s="5"/>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D481" s="9"/>
       <c r="G481" s="0"/>
       <c r="I481" s="4"/>
       <c r="J481" s="5"/>
@@ -4073,28 +4233,24 @@
       <c r="I493" s="4"/>
       <c r="J493" s="5"/>
       <c r="K493" s="5"/>
-      <c r="R493" s="9"/>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G494" s="0"/>
       <c r="I494" s="4"/>
       <c r="J494" s="5"/>
       <c r="K494" s="5"/>
-      <c r="R494" s="9"/>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G495" s="0"/>
       <c r="I495" s="4"/>
       <c r="J495" s="5"/>
       <c r="K495" s="5"/>
-      <c r="R495" s="9"/>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G496" s="0"/>
       <c r="I496" s="4"/>
       <c r="J496" s="5"/>
       <c r="K496" s="5"/>
-      <c r="R496" s="9"/>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G497" s="0"/>
@@ -4192,25 +4348,28 @@
       <c r="I510" s="4"/>
       <c r="J510" s="5"/>
       <c r="K510" s="5"/>
+      <c r="R510" s="9"/>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D511" s="9"/>
       <c r="G511" s="0"/>
       <c r="I511" s="4"/>
       <c r="J511" s="5"/>
       <c r="K511" s="5"/>
+      <c r="R511" s="9"/>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G512" s="0"/>
       <c r="I512" s="4"/>
       <c r="J512" s="5"/>
       <c r="K512" s="5"/>
+      <c r="R512" s="9"/>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G513" s="0"/>
       <c r="I513" s="4"/>
       <c r="J513" s="5"/>
       <c r="K513" s="5"/>
+      <c r="R513" s="9"/>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G514" s="0"/>
@@ -4219,6 +4378,7 @@
       <c r="K514" s="5"/>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D515" s="9"/>
       <c r="G515" s="0"/>
       <c r="I515" s="4"/>
       <c r="J515" s="5"/>
@@ -4249,7 +4409,6 @@
       <c r="K519" s="5"/>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D520" s="9"/>
       <c r="G520" s="0"/>
       <c r="I520" s="4"/>
       <c r="J520" s="5"/>
@@ -4274,6 +4433,7 @@
       <c r="K523" s="5"/>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D524" s="9"/>
       <c r="G524" s="0"/>
       <c r="I524" s="4"/>
       <c r="J524" s="5"/>
@@ -4364,7 +4524,6 @@
       <c r="K538" s="5"/>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D539" s="9"/>
       <c r="G539" s="0"/>
       <c r="I539" s="4"/>
       <c r="J539" s="5"/>
@@ -4389,6 +4548,7 @@
       <c r="K542" s="5"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D543" s="9"/>
       <c r="G543" s="0"/>
       <c r="I543" s="4"/>
       <c r="J543" s="5"/>
@@ -4563,14 +4723,12 @@
       <c r="K571" s="5"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D572" s="9"/>
       <c r="G572" s="0"/>
       <c r="I572" s="4"/>
       <c r="J572" s="5"/>
       <c r="K572" s="5"/>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D573" s="9"/>
       <c r="G573" s="0"/>
       <c r="I573" s="4"/>
       <c r="J573" s="5"/>
@@ -4589,12 +4747,14 @@
       <c r="K575" s="5"/>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D576" s="9"/>
       <c r="G576" s="0"/>
       <c r="I576" s="4"/>
       <c r="J576" s="5"/>
       <c r="K576" s="5"/>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D577" s="9"/>
       <c r="G577" s="0"/>
       <c r="I577" s="4"/>
       <c r="J577" s="5"/>
@@ -4811,7 +4971,6 @@
       <c r="K612" s="5"/>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D613" s="12"/>
       <c r="G613" s="0"/>
       <c r="I613" s="4"/>
       <c r="J613" s="5"/>
@@ -4832,18 +4991,27 @@
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G616" s="0"/>
       <c r="I616" s="4"/>
+      <c r="J616" s="5"/>
+      <c r="K616" s="5"/>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D617" s="12"/>
       <c r="G617" s="0"/>
       <c r="I617" s="4"/>
+      <c r="J617" s="5"/>
+      <c r="K617" s="5"/>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G618" s="0"/>
       <c r="I618" s="4"/>
+      <c r="J618" s="5"/>
+      <c r="K618" s="5"/>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G619" s="0"/>
       <c r="I619" s="4"/>
+      <c r="J619" s="5"/>
+      <c r="K619" s="5"/>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G620" s="0"/>
@@ -4962,7 +5130,6 @@
       <c r="I648" s="4"/>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F649" s="13"/>
       <c r="G649" s="0"/>
       <c r="I649" s="4"/>
     </row>
@@ -4979,6 +5146,7 @@
       <c r="I652" s="4"/>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F653" s="13"/>
       <c r="G653" s="0"/>
       <c r="I653" s="4"/>
     </row>
@@ -5001,22 +5169,18 @@
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G658" s="0"/>
       <c r="I658" s="4"/>
-      <c r="R658" s="10"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G659" s="0"/>
       <c r="I659" s="4"/>
-      <c r="R659" s="10"/>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G660" s="0"/>
       <c r="I660" s="4"/>
-      <c r="R660" s="10"/>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G661" s="0"/>
       <c r="I661" s="4"/>
-      <c r="R661" s="10"/>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G662" s="0"/>
@@ -5071,35 +5235,36 @@
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G672" s="0"/>
       <c r="I672" s="4"/>
+      <c r="R672" s="10"/>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G673" s="0"/>
       <c r="I673" s="4"/>
+      <c r="R673" s="10"/>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G674" s="0"/>
       <c r="I674" s="4"/>
+      <c r="R674" s="10"/>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G675" s="0"/>
       <c r="I675" s="4"/>
+      <c r="R675" s="10"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G676" s="0"/>
       <c r="I676" s="4"/>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D677" s="9"/>
       <c r="G677" s="0"/>
       <c r="I677" s="4"/>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D678" s="9"/>
       <c r="G678" s="0"/>
       <c r="I678" s="4"/>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D679" s="9"/>
       <c r="G679" s="0"/>
       <c r="I679" s="4"/>
     </row>
@@ -5108,14 +5273,17 @@
       <c r="I680" s="4"/>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D681" s="9"/>
       <c r="G681" s="0"/>
       <c r="I681" s="4"/>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D682" s="9"/>
       <c r="G682" s="0"/>
       <c r="I682" s="4"/>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D683" s="9"/>
       <c r="G683" s="0"/>
       <c r="I683" s="4"/>
     </row>
@@ -5253,15 +5421,19 @@
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G717" s="0"/>
+      <c r="I717" s="4"/>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G718" s="0"/>
+      <c r="I718" s="4"/>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G719" s="0"/>
+      <c r="I719" s="4"/>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G720" s="0"/>
+      <c r="I720" s="4"/>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G721" s="0"/>
@@ -5619,6 +5791,18 @@
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G839" s="0"/>
+    </row>
+    <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G840" s="0"/>
+    </row>
+    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G841" s="0"/>
+    </row>
+    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G842" s="0"/>
+    </row>
+    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G843" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
